--- a/Salida.xlsx
+++ b/Salida.xlsx
@@ -589,10 +589,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -621,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
         <v>-2</v>
@@ -682,16 +682,16 @@
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -714,16 +714,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G9" t="n">
-        <v>-474</v>
+        <v>-466</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F10" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -810,16 +810,16 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -842,16 +842,16 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>44</v>
+      </c>
+      <c r="F13" t="n">
+        <v>48</v>
+      </c>
+      <c r="G13" t="n">
         <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -874,16 +874,16 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -906,16 +906,16 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -970,16 +970,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>200</v>
       </c>
       <c r="F17" t="n">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="G17" t="n">
-        <v>-42</v>
+        <v>-10</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1002,16 +1002,16 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1066,16 +1066,16 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1098,16 +1098,16 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1130,16 +1130,16 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1162,16 +1162,16 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1194,16 +1194,16 @@
         <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F24" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G24" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
         <v>42</v>
       </c>
       <c r="F25" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1258,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G26" t="n">
-        <v>-19</v>
+        <v>-25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1290,16 +1290,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G27" t="n">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1322,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F28" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="G28" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1354,16 +1354,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G29" t="n">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="G30" t="n">
-        <v>-21</v>
+        <v>-27</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G31" t="n">
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E32" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F32" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="G32" t="n">
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G33" t="n">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1514,16 +1514,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F34" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G34" t="n">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="F35" t="n">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="G35" t="n">
-        <v>-23</v>
+        <v>-30</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F36" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G36" t="n">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F38" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G38" t="n">
-        <v>-18</v>
+        <v>-27</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1674,16 +1674,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F39" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G39" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1706,16 +1706,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F40" t="n">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="G40" t="n">
-        <v>-12</v>
+        <v>-31</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1738,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F41" t="n">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
-        <v>-11</v>
+        <v>-22</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1773,10 +1773,10 @@
         <v>19</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F42" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G42" t="n">
         <v>-19</v>
@@ -1802,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F43" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G43" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1834,16 +1834,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F44" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G44" t="n">
-        <v>-19</v>
+        <v>-26</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1866,16 +1866,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F45" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="G45" t="n">
-        <v>-29</v>
+        <v>-14</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1962,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F48" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G48" t="n">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2026,16 +2026,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
       </c>
       <c r="F51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F55" t="n">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="G55" t="n">
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F56" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G56" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E57" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F57" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F58" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G58" t="n">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2314,16 +2314,16 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59" t="n">
         <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G59" t="n">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2346,16 +2346,16 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G60" t="n">
-        <v>-5</v>
+        <v>-21</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2378,16 +2378,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F61" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G61" t="n">
-        <v>-9</v>
+        <v>-22</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2410,16 +2410,16 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F62" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="G62" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F63" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G63" t="n">
-        <v>-16</v>
+        <v>-33</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2477,10 +2477,10 @@
         <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F64" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G64" t="n">
         <v>11</v>
@@ -2634,16 +2634,16 @@
         <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2666,16 +2666,16 @@
         <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G70" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2698,16 +2698,16 @@
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G71" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2762,16 +2762,16 @@
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2794,16 +2794,16 @@
         <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G74" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2826,16 +2826,16 @@
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2890,16 +2890,16 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2922,16 +2922,16 @@
         <v>15</v>
       </c>
       <c r="D78" t="n">
+        <v>11</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>11</v>
+      </c>
+      <c r="G78" t="n">
         <v>4</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>4</v>
-      </c>
-      <c r="G78" t="n">
-        <v>11</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2986,16 +2986,16 @@
         <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3018,16 +3018,16 @@
         <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3050,16 +3050,16 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E84" t="n">
         <v>240</v>
       </c>
       <c r="F84" t="n">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G84" t="n">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3146,16 +3146,16 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
         <v>400</v>
       </c>
       <c r="F85" t="n">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G85" t="n">
-        <v>-22</v>
+        <v>-8</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3178,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>949</v>
+        <v>814</v>
       </c>
       <c r="E86" t="n">
         <v>1000</v>
       </c>
       <c r="F86" t="n">
-        <v>1949</v>
+        <v>1814</v>
       </c>
       <c r="G86" t="n">
-        <v>-949</v>
+        <v>-814</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F88" t="n">
-        <v>21.785</v>
+        <v>20.935</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>4.855</v>
+        <v>4.285</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>3.82</v>
+        <v>3.11</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="F92" t="n">
-        <v>11.949</v>
+        <v>11.667</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="F93" t="n">
-        <v>6.9</v>
+        <v>6.49</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F94" t="n">
-        <v>13.161</v>
+        <v>22.762</v>
       </c>
       <c r="G94" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F95" t="n">
-        <v>14.426</v>
+        <v>24.766</v>
       </c>
       <c r="G95" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3498,16 +3498,16 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>10.288</v>
+        <v>20.56</v>
       </c>
       <c r="G96" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3533,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F97" t="n">
-        <v>9.645</v>
+        <v>14.7</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
+        <v>138</v>
+      </c>
+      <c r="F98" t="n">
         <v>145</v>
       </c>
-      <c r="F98" t="n">
-        <v>159</v>
-      </c>
       <c r="G98" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F99" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G99" t="n">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3626,16 +3626,16 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E100" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="F100" t="n">
         <v>1590</v>
       </c>
       <c r="G100" t="n">
-        <v>-90</v>
+        <v>-140</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3690,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>950</v>
+        <v>815</v>
       </c>
       <c r="E102" t="n">
         <v>1000</v>
       </c>
       <c r="F102" t="n">
-        <v>1950</v>
+        <v>1815</v>
       </c>
       <c r="G102" t="n">
-        <v>-950</v>
+        <v>-815</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3722,16 +3722,16 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>949</v>
+        <v>814</v>
       </c>
       <c r="E103" t="n">
         <v>1000</v>
       </c>
       <c r="F103" t="n">
-        <v>1949</v>
+        <v>1814</v>
       </c>
       <c r="G103" t="n">
-        <v>-949</v>
+        <v>-814</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3818,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-50</v>
+        <v>-185</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-50</v>
+        <v>-185</v>
       </c>
       <c r="G106" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3882,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="G108" t="n">
-        <v>-402</v>
+        <v>-354</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3914,16 +3914,16 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="G109" t="n">
-        <v>-275</v>
+        <v>-192</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="E110" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F110" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G110" t="n">
-        <v>-28</v>
+        <v>-124</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4042,16 +4042,16 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>430</v>
+        <v>713</v>
       </c>
       <c r="E113" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="F113" t="n">
-        <v>3430</v>
+        <v>3213</v>
       </c>
       <c r="G113" t="n">
-        <v>-430</v>
+        <v>-713</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4074,16 +4074,16 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E114" t="n">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="F114" t="n">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G114" t="n">
-        <v>-23</v>
+        <v>-9</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E115" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G115" t="n">
-        <v>-23</v>
+        <v>-9</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4202,16 +4202,16 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118" t="n">
         <v>24</v>
       </c>
       <c r="F118" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4394,16 +4394,16 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4589,10 +4589,10 @@
         <v>17</v>
       </c>
       <c r="E130" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F130" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G130" t="n">
         <v>-7</v>
@@ -4618,16 +4618,16 @@
         <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E131" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F131" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G131" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4650,16 +4650,16 @@
         <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E132" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F132" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G132" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4682,16 +4682,16 @@
         <v>18</v>
       </c>
       <c r="D133" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E133" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F133" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4749,10 +4749,10 @@
         <v>10</v>
       </c>
       <c r="E135" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F135" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G135" t="n">
         <v>-3</v>
@@ -4781,10 +4781,10 @@
         <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F136" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G136" t="n">
         <v>-4</v>
@@ -4842,16 +4842,16 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E138" t="n">
         <v>12</v>
       </c>
       <c r="F138" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G138" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -4874,16 +4874,16 @@
         <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E139" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F139" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G139" t="n">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -4906,16 +4906,16 @@
         <v>18</v>
       </c>
       <c r="D140" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E140" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F140" t="n">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="G140" t="n">
-        <v>-24</v>
+        <v>-38</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -4970,16 +4970,16 @@
         <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E142" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F142" t="n">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G142" t="n">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5002,16 +5002,16 @@
         <v>18</v>
       </c>
       <c r="D143" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E143" t="n">
         <v>36</v>
       </c>
       <c r="F143" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G143" t="n">
-        <v>-15</v>
+        <v>-36</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5034,16 +5034,16 @@
         <v>22</v>
       </c>
       <c r="D144" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E144" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F144" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G144" t="n">
-        <v>-25</v>
+        <v>-33</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G145" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -5098,16 +5098,16 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G146" t="n">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5226,16 +5226,16 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G150" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5290,16 +5290,16 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152" t="n">
         <v>24</v>
       </c>
       <c r="F152" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G152" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -5322,16 +5322,16 @@
         <v>5</v>
       </c>
       <c r="D153" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E153" t="n">
         <v>6</v>
       </c>
       <c r="F153" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G153" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -5354,16 +5354,16 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G154" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5418,16 +5418,16 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5514,16 +5514,16 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E159" t="n">
         <v>12</v>
       </c>
       <c r="F159" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G159" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5546,16 +5546,16 @@
         <v>5</v>
       </c>
       <c r="D160" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F160" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G160" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -5578,16 +5578,16 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E161" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F161" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G161" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5674,16 +5674,16 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G164" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -5709,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="E165" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F165" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G165" t="n">
         <v>-6</v>
@@ -5738,16 +5738,16 @@
         <v>5</v>
       </c>
       <c r="D166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166" t="n">
         <v>18</v>
       </c>
       <c r="F166" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G166" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -5770,16 +5770,16 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E167" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F167" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G167" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -5802,16 +5802,16 @@
         <v>5</v>
       </c>
       <c r="D168" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E168" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F168" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G168" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -5834,16 +5834,16 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
         <v>14</v>
       </c>
       <c r="G169" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -5866,16 +5866,16 @@
         <v>3</v>
       </c>
       <c r="D170" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E170" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F170" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G170" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -5962,16 +5962,16 @@
         <v>7</v>
       </c>
       <c r="D173" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G173" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -6218,16 +6218,16 @@
         <v>32</v>
       </c>
       <c r="D181" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G181" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -6314,16 +6314,16 @@
         <v>32</v>
       </c>
       <c r="D184" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G184" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6346,16 +6346,16 @@
         <v>32</v>
       </c>
       <c r="D185" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -7018,16 +7018,16 @@
         <v>45</v>
       </c>
       <c r="D206" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -7050,16 +7050,16 @@
         <v>7</v>
       </c>
       <c r="D207" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E207" t="n">
         <v>12</v>
       </c>
       <c r="F207" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G207" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -7082,16 +7082,16 @@
         <v>14</v>
       </c>
       <c r="D208" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E208" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F208" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7114,16 +7114,16 @@
         <v>14</v>
       </c>
       <c r="D209" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209" t="n">
         <v>6</v>
       </c>
       <c r="F209" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -7146,16 +7146,16 @@
         <v>7</v>
       </c>
       <c r="D210" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E210" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F210" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G210" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -7210,16 +7210,16 @@
         <v>7</v>
       </c>
       <c r="D212" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G212" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -7242,16 +7242,16 @@
         <v>7</v>
       </c>
       <c r="D213" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G213" t="n">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -7306,16 +7306,16 @@
         <v>22</v>
       </c>
       <c r="D215" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E215" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F215" t="n">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="G215" t="n">
-        <v>-33</v>
+        <v>-25</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -7338,16 +7338,16 @@
         <v>14</v>
       </c>
       <c r="D216" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F216" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G216" t="n">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -7402,16 +7402,16 @@
         <v>14</v>
       </c>
       <c r="D218" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E218" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F218" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G218" t="n">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -7466,16 +7466,16 @@
         <v>14</v>
       </c>
       <c r="D220" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G220" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -7498,16 +7498,16 @@
         <v>14</v>
       </c>
       <c r="D221" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F221" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G221" t="n">
-        <v>10</v>
+        <v>-13</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -7562,16 +7562,16 @@
         <v>14</v>
       </c>
       <c r="D223" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -7594,16 +7594,16 @@
         <v>7</v>
       </c>
       <c r="D224" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E224" t="n">
         <v>18</v>
       </c>
       <c r="F224" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G224" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -7626,16 +7626,16 @@
         <v>5</v>
       </c>
       <c r="D225" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
       </c>
       <c r="F225" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G225" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
@@ -7658,16 +7658,16 @@
         <v>5</v>
       </c>
       <c r="D226" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E226" t="n">
         <v>12</v>
       </c>
       <c r="F226" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G226" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -7690,16 +7690,16 @@
         <v>5</v>
       </c>
       <c r="D227" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G227" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -7754,16 +7754,16 @@
         <v>10</v>
       </c>
       <c r="D229" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E229" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F229" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G229" t="n">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
@@ -7786,16 +7786,16 @@
         <v>5</v>
       </c>
       <c r="D230" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E230" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F230" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G230" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
@@ -7818,16 +7818,16 @@
         <v>15</v>
       </c>
       <c r="D231" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E231" t="n">
         <v>43</v>
       </c>
       <c r="F231" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G231" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -7850,16 +7850,16 @@
         <v>15</v>
       </c>
       <c r="D232" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E232" t="n">
         <v>26</v>
       </c>
       <c r="F232" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G232" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -7882,16 +7882,16 @@
         <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F233" t="n">
         <v>29</v>
       </c>
       <c r="G233" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -7914,16 +7914,16 @@
         <v>15</v>
       </c>
       <c r="D234" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E234" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F234" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -7978,16 +7978,16 @@
         <v>30</v>
       </c>
       <c r="D236" t="n">
+        <v>17</v>
+      </c>
+      <c r="E236" t="n">
+        <v>64</v>
+      </c>
+      <c r="F236" t="n">
+        <v>81</v>
+      </c>
+      <c r="G236" t="n">
         <v>13</v>
-      </c>
-      <c r="E236" t="n">
-        <v>69</v>
-      </c>
-      <c r="F236" t="n">
-        <v>82</v>
-      </c>
-      <c r="G236" t="n">
-        <v>17</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -8074,16 +8074,16 @@
         <v>30</v>
       </c>
       <c r="D239" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E239" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G239" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>12</v>
       </c>
       <c r="D241" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E241" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F241" t="n">
         <v>13</v>
       </c>
       <c r="G241" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -8202,16 +8202,16 @@
         <v>15</v>
       </c>
       <c r="D243" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
       </c>
       <c r="F243" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G243" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -8234,16 +8234,16 @@
         <v>15</v>
       </c>
       <c r="D244" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G244" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -8266,16 +8266,16 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E245" t="n">
         <v>6</v>
       </c>
       <c r="F245" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G245" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
@@ -8298,16 +8298,16 @@
         <v>5</v>
       </c>
       <c r="D246" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G246" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -8426,16 +8426,16 @@
         <v>32</v>
       </c>
       <c r="D250" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E250" t="n">
         <v>160</v>
       </c>
       <c r="F250" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G250" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
@@ -8490,16 +8490,16 @@
         <v>40</v>
       </c>
       <c r="D252" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E252" t="n">
         <v>160</v>
       </c>
       <c r="F252" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G252" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
@@ -8586,16 +8586,16 @@
         <v>25</v>
       </c>
       <c r="D255" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G255" t="n">
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -8714,16 +8714,16 @@
         <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
@@ -8746,16 +8746,16 @@
         <v>8</v>
       </c>
       <c r="D260" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
@@ -8874,16 +8874,16 @@
         <v>8</v>
       </c>
       <c r="D264" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G264" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
@@ -9098,16 +9098,16 @@
         <v>8</v>
       </c>
       <c r="D271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
@@ -9258,16 +9258,16 @@
         <v>8</v>
       </c>
       <c r="D276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G276" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
@@ -9322,16 +9322,16 @@
         <v>20</v>
       </c>
       <c r="D278" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E278" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F278" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G278" t="n">
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -9354,16 +9354,16 @@
         <v>28</v>
       </c>
       <c r="D279" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E279" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F279" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G279" t="n">
-        <v>-13</v>
+        <v>-29</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -9386,16 +9386,16 @@
         <v>28</v>
       </c>
       <c r="D280" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E280" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F280" t="n">
         <v>75</v>
       </c>
       <c r="G280" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -9482,16 +9482,16 @@
         <v>35</v>
       </c>
       <c r="D283" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G283" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
@@ -9546,16 +9546,16 @@
         <v>15</v>
       </c>
       <c r="D285" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E285" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F285" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G285" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>15</v>
       </c>
       <c r="D286" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E286" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F286" t="n">
         <v>26</v>
       </c>
       <c r="G286" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
@@ -9642,16 +9642,16 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E288" t="n">
         <v>6</v>
       </c>
       <c r="F288" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G288" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
@@ -9706,16 +9706,16 @@
         <v>9</v>
       </c>
       <c r="D290" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E290" t="n">
         <v>6</v>
       </c>
       <c r="F290" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G290" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H290" t="inlineStr">
         <is>
@@ -9770,16 +9770,16 @@
         <v>21</v>
       </c>
       <c r="D292" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E292" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G292" t="n">
-        <v>-1</v>
+        <v>-17</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
@@ -9930,16 +9930,16 @@
         <v>36</v>
       </c>
       <c r="D297" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E297" t="n">
         <v>24</v>
       </c>
       <c r="F297" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G297" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
@@ -9962,16 +9962,16 @@
         <v>35</v>
       </c>
       <c r="D298" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E298" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F298" t="n">
         <v>40</v>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
@@ -9994,16 +9994,16 @@
         <v>36</v>
       </c>
       <c r="D299" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E299" t="n">
         <v>36</v>
       </c>
       <c r="F299" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G299" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H299" t="inlineStr">
         <is>
@@ -10026,16 +10026,16 @@
         <v>36</v>
       </c>
       <c r="D300" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E300" t="n">
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G300" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H300" t="inlineStr">
         <is>
@@ -10090,16 +10090,16 @@
         <v>36</v>
       </c>
       <c r="D302" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E302" t="n">
         <v>60</v>
       </c>
       <c r="F302" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G302" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H302" t="inlineStr">
         <is>
@@ -10154,16 +10154,16 @@
         <v>36</v>
       </c>
       <c r="D304" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E304" t="n">
         <v>36</v>
       </c>
       <c r="F304" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G304" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
@@ -10186,16 +10186,16 @@
         <v>35</v>
       </c>
       <c r="D305" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E305" t="n">
         <v>25</v>
       </c>
       <c r="F305" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G305" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
@@ -10250,16 +10250,16 @@
         <v>20</v>
       </c>
       <c r="D307" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E307" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F307" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G307" t="n">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
@@ -10282,16 +10282,16 @@
         <v>20</v>
       </c>
       <c r="D308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E308" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F308" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G308" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
@@ -10378,16 +10378,16 @@
         <v>30</v>
       </c>
       <c r="D311" t="n">
+        <v>11</v>
+      </c>
+      <c r="E311" t="n">
         <v>10</v>
-      </c>
-      <c r="E311" t="n">
-        <v>11</v>
       </c>
       <c r="F311" t="n">
         <v>21</v>
       </c>
       <c r="G311" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
@@ -10538,16 +10538,16 @@
         <v>25</v>
       </c>
       <c r="D316" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
       </c>
       <c r="F316" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G316" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -10602,16 +10602,16 @@
         <v>25</v>
       </c>
       <c r="D318" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E318" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F318" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G318" t="n">
-        <v>-11</v>
+        <v>-29</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -10666,16 +10666,16 @@
         <v>25</v>
       </c>
       <c r="D320" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
       </c>
       <c r="F320" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G320" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H320" t="inlineStr">
         <is>
@@ -10730,16 +10730,16 @@
         <v>14</v>
       </c>
       <c r="D322" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E322" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F322" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G322" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
@@ -10794,16 +10794,16 @@
         <v>14</v>
       </c>
       <c r="D324" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E324" t="n">
         <v>36</v>
       </c>
       <c r="F324" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G324" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
@@ -10826,16 +10826,16 @@
         <v>14</v>
       </c>
       <c r="D325" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
       </c>
       <c r="F325" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G325" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="H325" t="inlineStr">
         <is>
@@ -11050,16 +11050,16 @@
         <v>3</v>
       </c>
       <c r="D332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E332" t="n">
         <v>0</v>
       </c>
       <c r="F332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -11146,16 +11146,16 @@
         <v>30</v>
       </c>
       <c r="D335" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
       </c>
       <c r="F335" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G335" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
@@ -11210,16 +11210,16 @@
         <v>30</v>
       </c>
       <c r="D337" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E337" t="n">
         <v>0</v>
       </c>
       <c r="F337" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G337" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
@@ -11274,16 +11274,16 @@
         <v>30</v>
       </c>
       <c r="D339" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E339" t="n">
         <v>0</v>
       </c>
       <c r="F339" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G339" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
@@ -11370,16 +11370,16 @@
         <v>4</v>
       </c>
       <c r="D342" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E342" t="n">
         <v>0</v>
       </c>
       <c r="F342" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H342" t="inlineStr">
         <is>
@@ -11437,10 +11437,10 @@
         <v>18</v>
       </c>
       <c r="E344" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F344" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G344" t="n">
         <v>-4</v>
@@ -11466,16 +11466,16 @@
         <v>14</v>
       </c>
       <c r="D345" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E345" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F345" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
@@ -11626,16 +11626,16 @@
         <v>12</v>
       </c>
       <c r="D350" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E350" t="n">
         <v>18</v>
       </c>
       <c r="F350" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
@@ -11722,16 +11722,16 @@
         <v>18</v>
       </c>
       <c r="D353" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
       </c>
       <c r="F353" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G353" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="H353" t="inlineStr">
         <is>
@@ -11882,16 +11882,16 @@
         <v>12</v>
       </c>
       <c r="D358" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E358" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F358" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="H358" t="inlineStr">
         <is>
@@ -11914,16 +11914,16 @@
         <v>12</v>
       </c>
       <c r="D359" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E359" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F359" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G359" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="H359" t="inlineStr">
         <is>
@@ -11978,16 +11978,16 @@
         <v>25</v>
       </c>
       <c r="D361" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E361" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F361" t="n">
         <v>42</v>
       </c>
       <c r="G361" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H361" t="inlineStr">
         <is>
@@ -12010,16 +12010,16 @@
         <v>30</v>
       </c>
       <c r="D362" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E362" t="n">
         <v>21</v>
       </c>
       <c r="F362" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G362" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
@@ -12042,16 +12042,16 @@
         <v>28</v>
       </c>
       <c r="D363" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E363" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F363" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G363" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
@@ -12170,16 +12170,16 @@
         <v>10</v>
       </c>
       <c r="D367" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E367" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F367" t="n">
         <v>21</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -12362,16 +12362,16 @@
         <v>7</v>
       </c>
       <c r="D373" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E373" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F373" t="n">
         <v>19</v>
       </c>
       <c r="G373" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H373" t="inlineStr">
         <is>
@@ -12586,16 +12586,16 @@
         <v>25</v>
       </c>
       <c r="D380" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G380" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H380" t="inlineStr">
         <is>
@@ -12618,16 +12618,16 @@
         <v>35</v>
       </c>
       <c r="D381" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G381" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H381" t="inlineStr">
         <is>
@@ -12778,16 +12778,16 @@
         <v>15</v>
       </c>
       <c r="D386" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G386" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -12810,16 +12810,16 @@
         <v>20</v>
       </c>
       <c r="D387" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E387" t="n">
         <v>0</v>
       </c>
       <c r="F387" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G387" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -12842,16 +12842,16 @@
         <v>50</v>
       </c>
       <c r="D388" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E388" t="n">
         <v>35</v>
       </c>
       <c r="F388" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G388" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
@@ -12874,16 +12874,16 @@
         <v>24</v>
       </c>
       <c r="D389" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E389" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F389" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G389" t="n">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
@@ -12938,16 +12938,16 @@
         <v>20</v>
       </c>
       <c r="D391" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E391" t="n">
         <v>0</v>
       </c>
       <c r="F391" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G391" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
@@ -12970,16 +12970,16 @@
         <v>20</v>
       </c>
       <c r="D392" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E392" t="n">
         <v>0</v>
       </c>
       <c r="F392" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G392" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="H392" t="inlineStr">
         <is>
@@ -13002,16 +13002,16 @@
         <v>18</v>
       </c>
       <c r="D393" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E393" t="n">
         <v>0</v>
       </c>
       <c r="F393" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G393" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H393" t="inlineStr">
         <is>
@@ -13130,16 +13130,16 @@
         <v>12</v>
       </c>
       <c r="D397" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E397" t="n">
         <v>0</v>
       </c>
       <c r="F397" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="G397" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -13162,16 +13162,16 @@
         <v>0</v>
       </c>
       <c r="D398" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E398" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F398" t="n">
         <v>35</v>
       </c>
       <c r="G398" t="n">
-        <v>-21</v>
+        <v>-25</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
@@ -13194,16 +13194,16 @@
         <v>12</v>
       </c>
       <c r="D399" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E399" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F399" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G399" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
@@ -13258,16 +13258,16 @@
         <v>24</v>
       </c>
       <c r="D401" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E401" t="n">
         <v>20</v>
       </c>
       <c r="F401" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G401" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H401" t="inlineStr">
         <is>
@@ -13290,16 +13290,16 @@
         <v>24</v>
       </c>
       <c r="D402" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E402" t="n">
         <v>0</v>
       </c>
       <c r="F402" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G402" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
@@ -13386,16 +13386,16 @@
         <v>20</v>
       </c>
       <c r="D405" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E405" t="n">
         <v>26</v>
       </c>
       <c r="F405" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G405" t="n">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="H405" t="inlineStr">
         <is>
@@ -13418,16 +13418,16 @@
         <v>21</v>
       </c>
       <c r="D406" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E406" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F406" t="n">
         <v>54</v>
       </c>
       <c r="G406" t="n">
-        <v>-21</v>
+        <v>-33</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
@@ -13450,16 +13450,16 @@
         <v>30</v>
       </c>
       <c r="D407" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E407" t="n">
         <v>0</v>
       </c>
       <c r="F407" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G407" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
@@ -13674,16 +13674,16 @@
         <v>24</v>
       </c>
       <c r="D414" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E414" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F414" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G414" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
@@ -13706,16 +13706,16 @@
         <v>20</v>
       </c>
       <c r="D415" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E415" t="n">
         <v>14</v>
       </c>
       <c r="F415" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G415" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
@@ -13738,16 +13738,16 @@
         <v>20</v>
       </c>
       <c r="D416" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E416" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F416" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G416" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
@@ -13770,16 +13770,16 @@
         <v>20</v>
       </c>
       <c r="D417" t="n">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="E417" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F417" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G417" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H417" t="inlineStr">
         <is>
@@ -13802,16 +13802,16 @@
         <v>20</v>
       </c>
       <c r="D418" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
       </c>
       <c r="F418" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G418" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H418" t="inlineStr">
         <is>
@@ -13866,16 +13866,16 @@
         <v>20</v>
       </c>
       <c r="D420" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E420" t="n">
         <v>35</v>
       </c>
       <c r="F420" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G420" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
@@ -13994,16 +13994,16 @@
         <v>10</v>
       </c>
       <c r="D424" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
       </c>
       <c r="F424" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G424" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
@@ -14090,16 +14090,16 @@
         <v>70</v>
       </c>
       <c r="D427" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E427" t="n">
         <v>120</v>
       </c>
       <c r="F427" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G427" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="H427" t="inlineStr">
         <is>
@@ -14314,16 +14314,16 @@
         <v>8</v>
       </c>
       <c r="D434" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E434" t="n">
         <v>0</v>
       </c>
       <c r="F434" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G434" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H434" t="inlineStr">
         <is>
@@ -14378,16 +14378,16 @@
         <v>8</v>
       </c>
       <c r="D436" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E436" t="n">
         <v>18</v>
       </c>
       <c r="F436" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G436" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H436" t="inlineStr">
         <is>
@@ -14666,16 +14666,16 @@
         <v>3</v>
       </c>
       <c r="D445" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F445" t="n">
         <v>10</v>
       </c>
       <c r="G445" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="H445" t="inlineStr">
         <is>
@@ -14890,16 +14890,16 @@
         <v>4</v>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F452" t="n">
         <v>2</v>
       </c>
       <c r="G452" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
@@ -15018,16 +15018,16 @@
         <v>8</v>
       </c>
       <c r="D456" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E456" t="n">
         <v>0</v>
       </c>
       <c r="F456" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G456" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H456" t="inlineStr">
         <is>
@@ -15050,16 +15050,16 @@
         <v>40</v>
       </c>
       <c r="D457" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E457" t="n">
         <v>0</v>
       </c>
       <c r="F457" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G457" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H457" t="inlineStr">
         <is>
@@ -15082,16 +15082,16 @@
         <v>7</v>
       </c>
       <c r="D458" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E458" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F458" t="n">
         <v>21</v>
       </c>
       <c r="G458" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="H458" t="inlineStr">
         <is>
@@ -15178,16 +15178,16 @@
         <v>8</v>
       </c>
       <c r="D461" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E461" t="n">
         <v>3</v>
       </c>
       <c r="F461" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G461" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H461" t="inlineStr">
         <is>
@@ -15210,16 +15210,16 @@
         <v>7</v>
       </c>
       <c r="D462" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
       </c>
       <c r="F462" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G462" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H462" t="inlineStr">
         <is>
@@ -15245,10 +15245,10 @@
         <v>5</v>
       </c>
       <c r="E463" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F463" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -15274,16 +15274,16 @@
         <v>4</v>
       </c>
       <c r="D464" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E464" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F464" t="n">
         <v>8</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="H464" t="inlineStr">
         <is>
@@ -15338,16 +15338,16 @@
         <v>22</v>
       </c>
       <c r="D466" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E466" t="n">
         <v>0</v>
       </c>
       <c r="F466" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G466" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
@@ -15370,16 +15370,16 @@
         <v>12</v>
       </c>
       <c r="D467" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E467" t="n">
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G467" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
@@ -15466,16 +15466,16 @@
         <v>20</v>
       </c>
       <c r="D470" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E470" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F470" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G470" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H470" t="inlineStr">
         <is>

--- a/Salida.xlsx
+++ b/Salida.xlsx
@@ -589,10 +589,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -621,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>-2</v>
@@ -682,16 +682,16 @@
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -714,16 +714,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G9" t="n">
-        <v>-466</v>
+        <v>-474</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G10" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -810,16 +810,16 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -842,16 +842,16 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
         <v>4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>44</v>
-      </c>
-      <c r="F13" t="n">
-        <v>48</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -874,16 +874,16 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -906,16 +906,16 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -970,16 +970,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
         <v>200</v>
       </c>
       <c r="F17" t="n">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="G17" t="n">
-        <v>-10</v>
+        <v>-42</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1002,16 +1002,16 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1066,16 +1066,16 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1098,16 +1098,16 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1130,16 +1130,16 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1162,16 +1162,16 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1194,16 +1194,16 @@
         <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F24" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G24" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>42</v>
       </c>
       <c r="F25" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1258,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G26" t="n">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1290,16 +1290,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G27" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1322,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1354,16 +1354,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>-27</v>
+        <v>-21</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="G32" t="n">
-        <v>-21</v>
+        <v>-13</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
+        <v>20</v>
+      </c>
+      <c r="F33" t="n">
         <v>40</v>
       </c>
-      <c r="F33" t="n">
-        <v>57</v>
-      </c>
       <c r="G33" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1514,16 +1514,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G34" t="n">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>23</v>
+      </c>
+      <c r="E35" t="n">
         <v>30</v>
       </c>
-      <c r="E35" t="n">
-        <v>190</v>
-      </c>
       <c r="F35" t="n">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="G35" t="n">
-        <v>-30</v>
+        <v>-23</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E38" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>-27</v>
+        <v>-18</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1674,16 +1674,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G39" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1706,16 +1706,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="G40" t="n">
-        <v>-31</v>
+        <v>-12</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1738,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="G41" t="n">
-        <v>-22</v>
+        <v>-11</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1773,10 +1773,10 @@
         <v>19</v>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G42" t="n">
         <v>-19</v>
@@ -1802,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G43" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1834,16 +1834,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G44" t="n">
-        <v>-26</v>
+        <v>-19</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1866,16 +1866,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E45" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G45" t="n">
-        <v>-14</v>
+        <v>-29</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1962,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="G48" t="n">
-        <v>-22</v>
+        <v>-14</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2026,16 +2026,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
       </c>
       <c r="F51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F55" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="G55" t="n">
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="G56" t="n">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E57" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="G57" t="n">
-        <v>-29</v>
+        <v>-17</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F58" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G58" t="n">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2314,16 +2314,16 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
         <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2346,16 +2346,16 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>-21</v>
+        <v>-5</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2378,16 +2378,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G61" t="n">
-        <v>-22</v>
+        <v>-9</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2410,16 +2410,16 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E62" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F62" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="G62" t="n">
-        <v>-31</v>
+        <v>-11</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F63" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G63" t="n">
-        <v>-33</v>
+        <v>-16</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2477,10 +2477,10 @@
         <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G64" t="n">
         <v>11</v>
@@ -2634,16 +2634,16 @@
         <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2666,16 +2666,16 @@
         <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2698,16 +2698,16 @@
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2762,16 +2762,16 @@
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2794,16 +2794,16 @@
         <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2826,16 +2826,16 @@
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2890,16 +2890,16 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G77" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2922,16 +2922,16 @@
         <v>15</v>
       </c>
       <c r="D78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" t="n">
         <v>11</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>11</v>
-      </c>
-      <c r="G78" t="n">
-        <v>4</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2986,16 +2986,16 @@
         <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3018,16 +3018,16 @@
         <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3050,16 +3050,16 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E84" t="n">
         <v>240</v>
       </c>
       <c r="F84" t="n">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="G84" t="n">
-        <v>-37</v>
+        <v>-51</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3146,16 +3146,16 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E85" t="n">
         <v>400</v>
       </c>
       <c r="F85" t="n">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="G85" t="n">
-        <v>-8</v>
+        <v>-22</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3178,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>814</v>
+        <v>949</v>
       </c>
       <c r="E86" t="n">
         <v>1000</v>
       </c>
       <c r="F86" t="n">
-        <v>1814</v>
+        <v>1949</v>
       </c>
       <c r="G86" t="n">
-        <v>-814</v>
+        <v>-949</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F88" t="n">
-        <v>20.935</v>
+        <v>21.785</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>4.285</v>
+        <v>4.855</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>3.11</v>
+        <v>3.82</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="F92" t="n">
-        <v>11.667</v>
+        <v>11.949</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="F93" t="n">
-        <v>6.49</v>
+        <v>6.9</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>22.762</v>
+        <v>13.161</v>
       </c>
       <c r="G94" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F95" t="n">
-        <v>24.766</v>
+        <v>14.426</v>
       </c>
       <c r="G95" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3498,16 +3498,16 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>20.56</v>
+        <v>10.288</v>
       </c>
       <c r="G96" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3533,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>14.7</v>
+        <v>9.645</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E98" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F98" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G98" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E99" t="n">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F99" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="G99" t="n">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3626,16 +3626,16 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="E100" t="n">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="F100" t="n">
         <v>1590</v>
       </c>
       <c r="G100" t="n">
-        <v>-140</v>
+        <v>-90</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3690,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>815</v>
+        <v>950</v>
       </c>
       <c r="E102" t="n">
         <v>1000</v>
       </c>
       <c r="F102" t="n">
-        <v>1815</v>
+        <v>1950</v>
       </c>
       <c r="G102" t="n">
-        <v>-815</v>
+        <v>-950</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3722,16 +3722,16 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>814</v>
+        <v>949</v>
       </c>
       <c r="E103" t="n">
         <v>1000</v>
       </c>
       <c r="F103" t="n">
-        <v>1814</v>
+        <v>1949</v>
       </c>
       <c r="G103" t="n">
-        <v>-814</v>
+        <v>-949</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3818,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-185</v>
+        <v>-50</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-185</v>
+        <v>-50</v>
       </c>
       <c r="G106" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3882,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="G108" t="n">
-        <v>-354</v>
+        <v>-402</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3914,16 +3914,16 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="G109" t="n">
-        <v>-192</v>
+        <v>-275</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="E110" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F110" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G110" t="n">
-        <v>-124</v>
+        <v>-28</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4042,16 +4042,16 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>713</v>
+        <v>430</v>
       </c>
       <c r="E113" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F113" t="n">
-        <v>3213</v>
+        <v>3430</v>
       </c>
       <c r="G113" t="n">
-        <v>-713</v>
+        <v>-430</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4074,16 +4074,16 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E114" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="F114" t="n">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="G114" t="n">
-        <v>-9</v>
+        <v>-23</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E115" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G115" t="n">
-        <v>-9</v>
+        <v>-23</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4202,16 +4202,16 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E118" t="n">
         <v>24</v>
       </c>
       <c r="F118" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4394,16 +4394,16 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4589,10 +4589,10 @@
         <v>17</v>
       </c>
       <c r="E130" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F130" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G130" t="n">
         <v>-7</v>
@@ -4618,16 +4618,16 @@
         <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E131" t="n">
+        <v>48</v>
+      </c>
+      <c r="F131" t="n">
         <v>72</v>
       </c>
-      <c r="F131" t="n">
-        <v>93</v>
-      </c>
       <c r="G131" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4650,16 +4650,16 @@
         <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E132" t="n">
+        <v>18</v>
+      </c>
+      <c r="F132" t="n">
         <v>36</v>
       </c>
-      <c r="F132" t="n">
-        <v>50</v>
-      </c>
       <c r="G132" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4682,16 +4682,16 @@
         <v>18</v>
       </c>
       <c r="D133" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E133" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F133" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G133" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4749,10 +4749,10 @@
         <v>10</v>
       </c>
       <c r="E135" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G135" t="n">
         <v>-3</v>
@@ -4781,10 +4781,10 @@
         <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F136" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G136" t="n">
         <v>-4</v>
@@ -4842,16 +4842,16 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E138" t="n">
         <v>12</v>
       </c>
       <c r="F138" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G138" t="n">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -4874,16 +4874,16 @@
         <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E139" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F139" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G139" t="n">
-        <v>-18</v>
+        <v>-5</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -4906,16 +4906,16 @@
         <v>18</v>
       </c>
       <c r="D140" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E140" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F140" t="n">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="G140" t="n">
-        <v>-38</v>
+        <v>-24</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -4970,16 +4970,16 @@
         <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E142" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F142" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G142" t="n">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5002,16 +5002,16 @@
         <v>18</v>
       </c>
       <c r="D143" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E143" t="n">
         <v>36</v>
       </c>
       <c r="F143" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G143" t="n">
-        <v>-36</v>
+        <v>-15</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5034,16 +5034,16 @@
         <v>22</v>
       </c>
       <c r="D144" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E144" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F144" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G144" t="n">
-        <v>-33</v>
+        <v>-25</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G145" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -5098,16 +5098,16 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G146" t="n">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5226,16 +5226,16 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5290,16 +5290,16 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E152" t="n">
         <v>24</v>
       </c>
       <c r="F152" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G152" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -5322,16 +5322,16 @@
         <v>5</v>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E153" t="n">
         <v>6</v>
       </c>
       <c r="F153" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G153" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -5354,16 +5354,16 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G154" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5418,16 +5418,16 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5514,16 +5514,16 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E159" t="n">
         <v>12</v>
       </c>
       <c r="F159" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G159" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5546,16 +5546,16 @@
         <v>5</v>
       </c>
       <c r="D160" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E160" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F160" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G160" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -5578,16 +5578,16 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E161" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F161" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G161" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5674,16 +5674,16 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G164" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -5709,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="E165" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F165" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G165" t="n">
         <v>-6</v>
@@ -5738,16 +5738,16 @@
         <v>5</v>
       </c>
       <c r="D166" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="n">
         <v>18</v>
       </c>
       <c r="F166" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G166" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -5770,16 +5770,16 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E167" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F167" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G167" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -5802,16 +5802,16 @@
         <v>5</v>
       </c>
       <c r="D168" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E168" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F168" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G168" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -5834,16 +5834,16 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F169" t="n">
         <v>14</v>
       </c>
       <c r="G169" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -5866,16 +5866,16 @@
         <v>3</v>
       </c>
       <c r="D170" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E170" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F170" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G170" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -5962,16 +5962,16 @@
         <v>7</v>
       </c>
       <c r="D173" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G173" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -6218,16 +6218,16 @@
         <v>32</v>
       </c>
       <c r="D181" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G181" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -6314,16 +6314,16 @@
         <v>32</v>
       </c>
       <c r="D184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G184" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6346,16 +6346,16 @@
         <v>32</v>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G185" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -7018,16 +7018,16 @@
         <v>45</v>
       </c>
       <c r="D206" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -7050,16 +7050,16 @@
         <v>7</v>
       </c>
       <c r="D207" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="n">
         <v>12</v>
       </c>
       <c r="F207" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G207" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -7082,16 +7082,16 @@
         <v>14</v>
       </c>
       <c r="D208" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E208" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F208" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7114,16 +7114,16 @@
         <v>14</v>
       </c>
       <c r="D209" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="n">
         <v>6</v>
       </c>
       <c r="F209" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G209" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -7146,16 +7146,16 @@
         <v>7</v>
       </c>
       <c r="D210" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E210" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F210" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G210" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -7210,16 +7210,16 @@
         <v>7</v>
       </c>
       <c r="D212" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G212" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -7242,16 +7242,16 @@
         <v>7</v>
       </c>
       <c r="D213" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G213" t="n">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -7306,16 +7306,16 @@
         <v>22</v>
       </c>
       <c r="D215" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E215" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F215" t="n">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="G215" t="n">
-        <v>-25</v>
+        <v>-33</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -7338,16 +7338,16 @@
         <v>14</v>
       </c>
       <c r="D216" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E216" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G216" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -7402,16 +7402,16 @@
         <v>14</v>
       </c>
       <c r="D218" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E218" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F218" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G218" t="n">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -7466,16 +7466,16 @@
         <v>14</v>
       </c>
       <c r="D220" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G220" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -7498,16 +7498,16 @@
         <v>14</v>
       </c>
       <c r="D221" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E221" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G221" t="n">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -7562,16 +7562,16 @@
         <v>14</v>
       </c>
       <c r="D223" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -7594,16 +7594,16 @@
         <v>7</v>
       </c>
       <c r="D224" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E224" t="n">
         <v>18</v>
       </c>
       <c r="F224" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G224" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -7626,16 +7626,16 @@
         <v>5</v>
       </c>
       <c r="D225" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
       </c>
       <c r="F225" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G225" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
@@ -7658,16 +7658,16 @@
         <v>5</v>
       </c>
       <c r="D226" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E226" t="n">
         <v>12</v>
       </c>
       <c r="F226" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G226" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -7690,16 +7690,16 @@
         <v>5</v>
       </c>
       <c r="D227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G227" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -7754,16 +7754,16 @@
         <v>10</v>
       </c>
       <c r="D229" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E229" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F229" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G229" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
@@ -7786,16 +7786,16 @@
         <v>5</v>
       </c>
       <c r="D230" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E230" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F230" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G230" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
@@ -7818,16 +7818,16 @@
         <v>15</v>
       </c>
       <c r="D231" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E231" t="n">
         <v>43</v>
       </c>
       <c r="F231" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -7850,16 +7850,16 @@
         <v>15</v>
       </c>
       <c r="D232" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E232" t="n">
         <v>26</v>
       </c>
       <c r="F232" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -7882,16 +7882,16 @@
         <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F233" t="n">
         <v>29</v>
       </c>
       <c r="G233" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -7914,16 +7914,16 @@
         <v>15</v>
       </c>
       <c r="D234" t="n">
+        <v>12</v>
+      </c>
+      <c r="E234" t="n">
         <v>16</v>
       </c>
-      <c r="E234" t="n">
-        <v>11</v>
-      </c>
       <c r="F234" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G234" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -7978,16 +7978,16 @@
         <v>30</v>
       </c>
       <c r="D236" t="n">
+        <v>13</v>
+      </c>
+      <c r="E236" t="n">
+        <v>69</v>
+      </c>
+      <c r="F236" t="n">
+        <v>82</v>
+      </c>
+      <c r="G236" t="n">
         <v>17</v>
-      </c>
-      <c r="E236" t="n">
-        <v>64</v>
-      </c>
-      <c r="F236" t="n">
-        <v>81</v>
-      </c>
-      <c r="G236" t="n">
-        <v>13</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -8074,16 +8074,16 @@
         <v>30</v>
       </c>
       <c r="D239" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F239" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G239" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>12</v>
       </c>
       <c r="D241" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F241" t="n">
         <v>13</v>
       </c>
       <c r="G241" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -8202,16 +8202,16 @@
         <v>15</v>
       </c>
       <c r="D243" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
       </c>
       <c r="F243" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G243" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -8234,16 +8234,16 @@
         <v>15</v>
       </c>
       <c r="D244" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G244" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -8266,16 +8266,16 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E245" t="n">
         <v>6</v>
       </c>
       <c r="F245" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G245" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
@@ -8298,16 +8298,16 @@
         <v>5</v>
       </c>
       <c r="D246" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G246" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -8426,16 +8426,16 @@
         <v>32</v>
       </c>
       <c r="D250" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E250" t="n">
         <v>160</v>
       </c>
       <c r="F250" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G250" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
@@ -8490,16 +8490,16 @@
         <v>40</v>
       </c>
       <c r="D252" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E252" t="n">
         <v>160</v>
       </c>
       <c r="F252" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G252" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
@@ -8586,16 +8586,16 @@
         <v>25</v>
       </c>
       <c r="D255" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G255" t="n">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -8714,16 +8714,16 @@
         <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
@@ -8746,16 +8746,16 @@
         <v>8</v>
       </c>
       <c r="D260" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
@@ -8874,16 +8874,16 @@
         <v>8</v>
       </c>
       <c r="D264" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
@@ -9098,16 +9098,16 @@
         <v>8</v>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G271" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
@@ -9258,16 +9258,16 @@
         <v>8</v>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G276" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
@@ -9322,16 +9322,16 @@
         <v>20</v>
       </c>
       <c r="D278" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E278" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F278" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G278" t="n">
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -9354,16 +9354,16 @@
         <v>28</v>
       </c>
       <c r="D279" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E279" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F279" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G279" t="n">
-        <v>-29</v>
+        <v>-13</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -9386,16 +9386,16 @@
         <v>28</v>
       </c>
       <c r="D280" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E280" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F280" t="n">
         <v>75</v>
       </c>
       <c r="G280" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -9482,16 +9482,16 @@
         <v>35</v>
       </c>
       <c r="D283" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G283" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
@@ -9546,16 +9546,16 @@
         <v>15</v>
       </c>
       <c r="D285" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E285" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F285" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G285" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>15</v>
       </c>
       <c r="D286" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E286" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F286" t="n">
         <v>26</v>
       </c>
       <c r="G286" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
@@ -9642,16 +9642,16 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E288" t="n">
         <v>6</v>
       </c>
       <c r="F288" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
@@ -9706,16 +9706,16 @@
         <v>9</v>
       </c>
       <c r="D290" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E290" t="n">
         <v>6</v>
       </c>
       <c r="F290" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G290" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H290" t="inlineStr">
         <is>
@@ -9770,16 +9770,16 @@
         <v>21</v>
       </c>
       <c r="D292" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F292" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G292" t="n">
-        <v>-17</v>
+        <v>-1</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
@@ -9930,16 +9930,16 @@
         <v>36</v>
       </c>
       <c r="D297" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E297" t="n">
         <v>24</v>
       </c>
       <c r="F297" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G297" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
@@ -9962,16 +9962,16 @@
         <v>35</v>
       </c>
       <c r="D298" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E298" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F298" t="n">
         <v>40</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
@@ -9994,16 +9994,16 @@
         <v>36</v>
       </c>
       <c r="D299" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E299" t="n">
         <v>36</v>
       </c>
       <c r="F299" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G299" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H299" t="inlineStr">
         <is>
@@ -10026,16 +10026,16 @@
         <v>36</v>
       </c>
       <c r="D300" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E300" t="n">
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G300" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H300" t="inlineStr">
         <is>
@@ -10090,16 +10090,16 @@
         <v>36</v>
       </c>
       <c r="D302" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E302" t="n">
         <v>60</v>
       </c>
       <c r="F302" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G302" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H302" t="inlineStr">
         <is>
@@ -10154,16 +10154,16 @@
         <v>36</v>
       </c>
       <c r="D304" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E304" t="n">
         <v>36</v>
       </c>
       <c r="F304" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G304" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
@@ -10186,16 +10186,16 @@
         <v>35</v>
       </c>
       <c r="D305" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E305" t="n">
         <v>25</v>
       </c>
       <c r="F305" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G305" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
@@ -10250,16 +10250,16 @@
         <v>20</v>
       </c>
       <c r="D307" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F307" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G307" t="n">
-        <v>-24</v>
+        <v>-1</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
@@ -10282,16 +10282,16 @@
         <v>20</v>
       </c>
       <c r="D308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E308" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F308" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G308" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
@@ -10378,16 +10378,16 @@
         <v>30</v>
       </c>
       <c r="D311" t="n">
+        <v>10</v>
+      </c>
+      <c r="E311" t="n">
         <v>11</v>
-      </c>
-      <c r="E311" t="n">
-        <v>10</v>
       </c>
       <c r="F311" t="n">
         <v>21</v>
       </c>
       <c r="G311" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
@@ -10538,16 +10538,16 @@
         <v>25</v>
       </c>
       <c r="D316" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
       </c>
       <c r="F316" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -10602,16 +10602,16 @@
         <v>25</v>
       </c>
       <c r="D318" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E318" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F318" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G318" t="n">
-        <v>-29</v>
+        <v>-11</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -10666,16 +10666,16 @@
         <v>25</v>
       </c>
       <c r="D320" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
       </c>
       <c r="F320" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G320" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="H320" t="inlineStr">
         <is>
@@ -10730,16 +10730,16 @@
         <v>14</v>
       </c>
       <c r="D322" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E322" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F322" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G322" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
@@ -10794,16 +10794,16 @@
         <v>14</v>
       </c>
       <c r="D324" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E324" t="n">
         <v>36</v>
       </c>
       <c r="F324" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G324" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
@@ -10826,16 +10826,16 @@
         <v>14</v>
       </c>
       <c r="D325" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
       </c>
       <c r="F325" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G325" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H325" t="inlineStr">
         <is>
@@ -11050,16 +11050,16 @@
         <v>3</v>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E332" t="n">
         <v>0</v>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G332" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -11146,16 +11146,16 @@
         <v>30</v>
       </c>
       <c r="D335" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
       </c>
       <c r="F335" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G335" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
@@ -11210,16 +11210,16 @@
         <v>30</v>
       </c>
       <c r="D337" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E337" t="n">
         <v>0</v>
       </c>
       <c r="F337" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G337" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
@@ -11274,16 +11274,16 @@
         <v>30</v>
       </c>
       <c r="D339" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E339" t="n">
         <v>0</v>
       </c>
       <c r="F339" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G339" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
@@ -11370,16 +11370,16 @@
         <v>4</v>
       </c>
       <c r="D342" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E342" t="n">
         <v>0</v>
       </c>
       <c r="F342" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H342" t="inlineStr">
         <is>
@@ -11437,10 +11437,10 @@
         <v>18</v>
       </c>
       <c r="E344" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F344" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G344" t="n">
         <v>-4</v>
@@ -11466,16 +11466,16 @@
         <v>14</v>
       </c>
       <c r="D345" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F345" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
@@ -11626,16 +11626,16 @@
         <v>12</v>
       </c>
       <c r="D350" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E350" t="n">
         <v>18</v>
       </c>
       <c r="F350" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
@@ -11722,16 +11722,16 @@
         <v>18</v>
       </c>
       <c r="D353" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
       </c>
       <c r="F353" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G353" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H353" t="inlineStr">
         <is>
@@ -11882,16 +11882,16 @@
         <v>12</v>
       </c>
       <c r="D358" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F358" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G358" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="H358" t="inlineStr">
         <is>
@@ -11914,16 +11914,16 @@
         <v>12</v>
       </c>
       <c r="D359" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E359" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F359" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G359" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="H359" t="inlineStr">
         <is>
@@ -11978,16 +11978,16 @@
         <v>25</v>
       </c>
       <c r="D361" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E361" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F361" t="n">
         <v>42</v>
       </c>
       <c r="G361" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H361" t="inlineStr">
         <is>
@@ -12010,16 +12010,16 @@
         <v>30</v>
       </c>
       <c r="D362" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E362" t="n">
         <v>21</v>
       </c>
       <c r="F362" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G362" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
@@ -12042,16 +12042,16 @@
         <v>28</v>
       </c>
       <c r="D363" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E363" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F363" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G363" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
@@ -12170,16 +12170,16 @@
         <v>10</v>
       </c>
       <c r="D367" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E367" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F367" t="n">
         <v>21</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -12362,16 +12362,16 @@
         <v>7</v>
       </c>
       <c r="D373" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E373" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F373" t="n">
         <v>19</v>
       </c>
       <c r="G373" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H373" t="inlineStr">
         <is>
@@ -12586,16 +12586,16 @@
         <v>25</v>
       </c>
       <c r="D380" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G380" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H380" t="inlineStr">
         <is>
@@ -12618,16 +12618,16 @@
         <v>35</v>
       </c>
       <c r="D381" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G381" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H381" t="inlineStr">
         <is>
@@ -12778,16 +12778,16 @@
         <v>15</v>
       </c>
       <c r="D386" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G386" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -12810,16 +12810,16 @@
         <v>20</v>
       </c>
       <c r="D387" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E387" t="n">
         <v>0</v>
       </c>
       <c r="F387" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G387" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -12842,16 +12842,16 @@
         <v>50</v>
       </c>
       <c r="D388" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E388" t="n">
         <v>35</v>
       </c>
       <c r="F388" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G388" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
@@ -12874,16 +12874,16 @@
         <v>24</v>
       </c>
       <c r="D389" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F389" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G389" t="n">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
@@ -12938,16 +12938,16 @@
         <v>20</v>
       </c>
       <c r="D391" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E391" t="n">
         <v>0</v>
       </c>
       <c r="F391" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G391" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
@@ -12970,16 +12970,16 @@
         <v>20</v>
       </c>
       <c r="D392" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E392" t="n">
         <v>0</v>
       </c>
       <c r="F392" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G392" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H392" t="inlineStr">
         <is>
@@ -13002,16 +13002,16 @@
         <v>18</v>
       </c>
       <c r="D393" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E393" t="n">
         <v>0</v>
       </c>
       <c r="F393" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G393" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H393" t="inlineStr">
         <is>
@@ -13130,16 +13130,16 @@
         <v>12</v>
       </c>
       <c r="D397" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E397" t="n">
         <v>0</v>
       </c>
       <c r="F397" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="G397" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -13162,16 +13162,16 @@
         <v>0</v>
       </c>
       <c r="D398" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E398" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F398" t="n">
         <v>35</v>
       </c>
       <c r="G398" t="n">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
@@ -13194,16 +13194,16 @@
         <v>12</v>
       </c>
       <c r="D399" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E399" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F399" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G399" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
@@ -13258,16 +13258,16 @@
         <v>24</v>
       </c>
       <c r="D401" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E401" t="n">
         <v>20</v>
       </c>
       <c r="F401" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G401" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H401" t="inlineStr">
         <is>
@@ -13290,16 +13290,16 @@
         <v>24</v>
       </c>
       <c r="D402" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E402" t="n">
         <v>0</v>
       </c>
       <c r="F402" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G402" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
@@ -13386,16 +13386,16 @@
         <v>20</v>
       </c>
       <c r="D405" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E405" t="n">
         <v>26</v>
       </c>
       <c r="F405" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G405" t="n">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="H405" t="inlineStr">
         <is>
@@ -13418,16 +13418,16 @@
         <v>21</v>
       </c>
       <c r="D406" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E406" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F406" t="n">
         <v>54</v>
       </c>
       <c r="G406" t="n">
-        <v>-33</v>
+        <v>-21</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
@@ -13450,16 +13450,16 @@
         <v>30</v>
       </c>
       <c r="D407" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E407" t="n">
         <v>0</v>
       </c>
       <c r="F407" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G407" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
@@ -13674,16 +13674,16 @@
         <v>24</v>
       </c>
       <c r="D414" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E414" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F414" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G414" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
@@ -13706,16 +13706,16 @@
         <v>20</v>
       </c>
       <c r="D415" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E415" t="n">
         <v>14</v>
       </c>
       <c r="F415" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G415" t="n">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
@@ -13738,16 +13738,16 @@
         <v>20</v>
       </c>
       <c r="D416" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E416" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F416" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G416" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
@@ -13770,16 +13770,16 @@
         <v>20</v>
       </c>
       <c r="D417" t="n">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="E417" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F417" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G417" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H417" t="inlineStr">
         <is>
@@ -13802,16 +13802,16 @@
         <v>20</v>
       </c>
       <c r="D418" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
       </c>
       <c r="F418" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G418" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H418" t="inlineStr">
         <is>
@@ -13866,16 +13866,16 @@
         <v>20</v>
       </c>
       <c r="D420" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E420" t="n">
         <v>35</v>
       </c>
       <c r="F420" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G420" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
@@ -13994,16 +13994,16 @@
         <v>10</v>
       </c>
       <c r="D424" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
       </c>
       <c r="F424" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G424" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
@@ -14090,16 +14090,16 @@
         <v>70</v>
       </c>
       <c r="D427" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E427" t="n">
         <v>120</v>
       </c>
       <c r="F427" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G427" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="H427" t="inlineStr">
         <is>
@@ -14314,16 +14314,16 @@
         <v>8</v>
       </c>
       <c r="D434" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E434" t="n">
         <v>0</v>
       </c>
       <c r="F434" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G434" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H434" t="inlineStr">
         <is>
@@ -14378,16 +14378,16 @@
         <v>8</v>
       </c>
       <c r="D436" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E436" t="n">
         <v>18</v>
       </c>
       <c r="F436" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G436" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H436" t="inlineStr">
         <is>
@@ -14666,16 +14666,16 @@
         <v>3</v>
       </c>
       <c r="D445" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F445" t="n">
         <v>10</v>
       </c>
       <c r="G445" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="H445" t="inlineStr">
         <is>
@@ -14890,16 +14890,16 @@
         <v>4</v>
       </c>
       <c r="D452" t="n">
+        <v>0</v>
+      </c>
+      <c r="E452" t="n">
         <v>2</v>
-      </c>
-      <c r="E452" t="n">
-        <v>0</v>
       </c>
       <c r="F452" t="n">
         <v>2</v>
       </c>
       <c r="G452" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
@@ -15018,16 +15018,16 @@
         <v>8</v>
       </c>
       <c r="D456" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E456" t="n">
         <v>0</v>
       </c>
       <c r="F456" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G456" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H456" t="inlineStr">
         <is>
@@ -15050,16 +15050,16 @@
         <v>40</v>
       </c>
       <c r="D457" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E457" t="n">
         <v>0</v>
       </c>
       <c r="F457" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G457" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H457" t="inlineStr">
         <is>
@@ -15082,16 +15082,16 @@
         <v>7</v>
       </c>
       <c r="D458" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F458" t="n">
         <v>21</v>
       </c>
       <c r="G458" t="n">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="H458" t="inlineStr">
         <is>
@@ -15178,16 +15178,16 @@
         <v>8</v>
       </c>
       <c r="D461" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E461" t="n">
         <v>3</v>
       </c>
       <c r="F461" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H461" t="inlineStr">
         <is>
@@ -15210,16 +15210,16 @@
         <v>7</v>
       </c>
       <c r="D462" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
       </c>
       <c r="F462" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G462" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H462" t="inlineStr">
         <is>
@@ -15245,10 +15245,10 @@
         <v>5</v>
       </c>
       <c r="E463" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F463" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -15274,16 +15274,16 @@
         <v>4</v>
       </c>
       <c r="D464" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F464" t="n">
         <v>8</v>
       </c>
       <c r="G464" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="H464" t="inlineStr">
         <is>
@@ -15338,16 +15338,16 @@
         <v>22</v>
       </c>
       <c r="D466" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E466" t="n">
         <v>0</v>
       </c>
       <c r="F466" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
@@ -15370,16 +15370,16 @@
         <v>12</v>
       </c>
       <c r="D467" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E467" t="n">
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
@@ -15466,16 +15466,16 @@
         <v>20</v>
       </c>
       <c r="D470" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F470" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G470" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H470" t="inlineStr">
         <is>
